--- a/preços.xlsx
+++ b/preços.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albualv\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00879D4-F980-47B6-8B33-6390B5032B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1C876C-96DC-4B00-87FF-7B8CBAA5936C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE43EF37-9E80-4AA4-B8D8-6AD7DDD7CF31}"/>
   </bookViews>
@@ -1883,1693 +1883,1693 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4228208115</v>
+        <v>#N/A Requesting Data...2707161388</v>
         <stp/>
         <stp>BDP|18130380707939219871</stp>
         <tr r="D494" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4197060203</v>
+        <v>#N/A Requesting Data...1201633799</v>
         <stp/>
         <stp>BDP|13272921428474721656</stp>
         <tr r="D147" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3070330678</v>
         <stp/>
         <stp>BDP|17918545934148571367</stp>
         <tr r="D437" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4140435176</v>
+        <v>#N/A Requesting Data...784810847</v>
         <stp/>
         <stp>BDP|10359585215779268705</stp>
         <tr r="D176" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4212371131</v>
+        <v>#N/A Requesting Data...2480872548</v>
         <stp/>
         <stp>BDP|14609502577284537887</stp>
         <tr r="D214" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2986787320</v>
         <stp/>
         <stp>BDP|10523703117554535863</stp>
         <tr r="D486" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1473798757</v>
         <stp/>
         <stp>BDP|17880292975280720805</stp>
         <tr r="D357" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4176992025</v>
+        <v>#N/A Requesting Data...737822942</v>
         <stp/>
         <stp>BDP|13387983340553002780</stp>
         <tr r="D14" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...943841058</v>
         <stp/>
         <stp>BDP|15245981216285965267</stp>
         <tr r="D570" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3890495555</v>
         <stp/>
         <stp>BDP|15113910186139780734</stp>
         <tr r="D395" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4213717404</v>
+        <v>#N/A Requesting Data...2105703266</v>
         <stp/>
         <stp>BDP|17006229196836462041</stp>
         <tr r="D521" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4188153419</v>
+        <v>#N/A Requesting Data...2229252829</v>
         <stp/>
         <stp>BDP|14733664627948255235</stp>
         <tr r="D524" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1320965247</v>
         <stp/>
         <stp>BDP|11475870723101102064</stp>
         <tr r="D455" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4224064901</v>
+        <v>#N/A Requesting Data...3967216989</v>
         <stp/>
         <stp>BDP|13138271577304613807</stp>
         <tr r="D541" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3166573425</v>
         <stp/>
         <stp>BDP|17357306299591446770</stp>
         <tr r="D384" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2841597129</v>
         <stp/>
         <stp>BDP|15352968677290872022</stp>
         <tr r="D410" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4293987922</v>
+        <v>#N/A Requesting Data...4292468414</v>
         <stp/>
         <stp>BDP|12416029813160488899</stp>
         <tr r="D174" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1770481669</v>
         <stp/>
         <stp>BDP|10792138599862271139</stp>
         <tr r="D261" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2245130799</v>
         <stp/>
         <stp>BDP|12207032838648321251</stp>
         <tr r="D433" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4256152091</v>
+        <v>#N/A Requesting Data...1378872738</v>
         <stp/>
         <stp>BDP|10348758089856561248</stp>
         <tr r="D381" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4280311952</v>
+        <v>#N/A Requesting Data...2188006850</v>
         <stp/>
         <stp>BDP|13101297941857035980</stp>
         <tr r="D181" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4290125230</v>
+        <v>#N/A Requesting Data...4125732511</v>
         <stp/>
         <stp>BDP|11113578372618316043</stp>
         <tr r="D6" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4273823801</v>
+        <v>#N/A Requesting Data...4227220541</v>
         <stp/>
         <stp>BDP|17344867564695058726</stp>
         <tr r="D439" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4269328660</v>
+        <v>#N/A Requesting Data...702119243</v>
         <stp/>
         <stp>BDP|11064713536247181933</stp>
         <tr r="D130" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4199086540</v>
+        <v>#N/A Requesting Data...774836953</v>
         <stp/>
         <stp>BDP|15033921509094675381</stp>
         <tr r="D277" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4146678847</v>
+        <v>#N/A Requesting Data...1274379514</v>
         <stp/>
         <stp>BDP|18281415759177910546</stp>
         <tr r="D152" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4243454378</v>
+        <v>#N/A Requesting Data...3477396181</v>
         <stp/>
         <stp>BDP|18134660038734956219</stp>
         <tr r="D345" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4277647018</v>
+        <v>#N/A Requesting Data...2192698616</v>
         <stp/>
         <stp>BDP|10843064325063376936</stp>
         <tr r="D145" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4279604864</v>
+        <v>#N/A Requesting Data...3479770888</v>
         <stp/>
         <stp>BDP|18159706965541727098</stp>
         <tr r="D581" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3962277764</v>
         <stp/>
         <stp>BDP|12317460689491914796</stp>
         <tr r="D448" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4187010656</v>
+        <v>#N/A Requesting Data...1871782380</v>
         <stp/>
         <stp>BDP|15079925338093389470</stp>
         <tr r="D119" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4196068707</v>
+        <v>#N/A Requesting Data...3766012809</v>
         <stp/>
         <stp>BDP|13497368782414632485</stp>
         <tr r="D30" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1557968151</v>
         <stp/>
         <stp>BDP|11370635344389212282</stp>
         <tr r="D350" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4154545237</v>
+        <v>#N/A Requesting Data...3875358999</v>
         <stp/>
         <stp>BDP|15008276610608798613</stp>
         <tr r="D255" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4162210972</v>
+        <v>#N/A Requesting Data...3772463335</v>
         <stp/>
         <stp>BDP|17413651789491811050</stp>
         <tr r="D478" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4167132510</v>
+        <v>#N/A Requesting Data...536522423</v>
         <stp/>
         <stp>BDP|11780792104807847973</stp>
         <tr r="D47" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4197548104</v>
+        <v>#N/A Requesting Data...4039803588</v>
         <stp/>
         <stp>BDP|14805141504898435585</stp>
         <tr r="D66" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4198037773</v>
+        <v>#N/A Requesting Data...1358471766</v>
         <stp/>
         <stp>BDP|10575312694051436305</stp>
         <tr r="D403" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2348711061</v>
         <stp/>
         <stp>BDP|10700940686560729962</stp>
         <tr r="D376" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4204266673</v>
+        <v>#N/A Requesting Data...3717228405</v>
         <stp/>
         <stp>BDP|11792873564044596357</stp>
         <tr r="D538" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1154448246</v>
         <stp/>
         <stp>BDP|17679317681626517244</stp>
         <tr r="D554" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...657185658</v>
         <stp/>
         <stp>BDP|10397638545702181838</stp>
         <tr r="D411" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4183728692</v>
+        <v>#N/A Requesting Data...831486831</v>
         <stp/>
         <stp>BDP|15630850427663880551</stp>
         <tr r="D389" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4268464758</v>
+        <v>#N/A Requesting Data...3469015461</v>
         <stp/>
         <stp>BDP|10299434835367932948</stp>
         <tr r="D110" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4231200017</v>
+        <v>#N/A Requesting Data...1656093582</v>
         <stp/>
         <stp>BDP|12865536850258628375</stp>
         <tr r="D526" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4263178762</v>
+        <v>#N/A Requesting Data...561297338</v>
         <stp/>
         <stp>BDP|14709709392313112094</stp>
         <tr r="D253" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2413630330</v>
         <stp/>
         <stp>BDP|10688999501917520745</stp>
         <tr r="D498" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...985904036</v>
         <stp/>
         <stp>BDP|17246154003606854923</stp>
         <tr r="D353" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4250258684</v>
+        <v>#N/A Requesting Data...3084535549</v>
         <stp/>
         <stp>BDP|11718513388440615598</stp>
         <tr r="D169" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4255835274</v>
+        <v>#N/A Requesting Data...479914575</v>
         <stp/>
         <stp>BDP|10074279046239945688</stp>
         <tr r="D135" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4287232382</v>
+        <v>#N/A Requesting Data...422142233</v>
         <stp/>
         <stp>BDP|14594546126098525216</stp>
         <tr r="D471" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4268508383</v>
+        <v>#N/A Requesting Data...2298371008</v>
         <stp/>
         <stp>BDP|15849798574884762819</stp>
         <tr r="D334" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4206388880</v>
+        <v>#N/A Requesting Data...2502793563</v>
         <stp/>
         <stp>BDP|11385921760102622516</stp>
         <tr r="D272" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4228030430</v>
+        <v>#N/A Requesting Data...1328540789</v>
         <stp/>
         <stp>BDP|18361103979421662146</stp>
         <tr r="D291" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4252408398</v>
+        <v>#N/A Requesting Data...3094038465</v>
         <stp/>
         <stp>BDP|12330990757589669935</stp>
         <tr r="D232" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4260629339</v>
+        <v>#N/A Requesting Data...980505581</v>
         <stp/>
         <stp>BDP|13701082089486547385</stp>
         <tr r="D569" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4280300038</v>
+        <v>#N/A Requesting Data...2159587431</v>
         <stp/>
         <stp>BDP|12833360906528189729</stp>
         <tr r="D175" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4190235721</v>
+        <v>#N/A Requesting Data...1374334198</v>
         <stp/>
         <stp>BDP|12694354178120007808</stp>
         <tr r="D36" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4221606790</v>
+        <v>#N/A Requesting Data...3713509436</v>
         <stp/>
         <stp>BDP|18307045953337951479</stp>
         <tr r="D462" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1117672481</v>
         <stp/>
         <stp>BDP|17090317293102876104</stp>
         <tr r="D457" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4280024180</v>
+        <v>#N/A Requesting Data...2237558256</v>
         <stp/>
         <stp>BDP|12546426298205256424</stp>
         <tr r="D196" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4188626461</v>
+        <v>#N/A Requesting Data...2531774003</v>
         <stp/>
         <stp>BDP|15269980654434519350</stp>
         <tr r="D211" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4236556269</v>
+        <v>#N/A Requesting Data...1338364788</v>
         <stp/>
         <stp>BDP|12292199959648622054</stp>
         <tr r="D208" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1125512898</v>
         <stp/>
         <stp>BDP|11145590832038972135</stp>
         <tr r="D408" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4196674963</v>
+        <v>#N/A Requesting Data...2092426791</v>
         <stp/>
         <stp>BDP|18062401136285475426</stp>
         <tr r="D355" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4256234127</v>
+        <v>#N/A Requesting Data...3798957198</v>
         <stp/>
         <stp>BDP|10020961262818685911</stp>
         <tr r="D464" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2416223366</v>
         <stp/>
         <stp>BDP|15054492373699905119</stp>
         <tr r="D161" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2709919299</v>
         <stp/>
         <stp>BDP|10366387513528886454</stp>
         <tr r="D223" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4202034170</v>
+        <v>#N/A Requesting Data...4284092290</v>
         <stp/>
         <stp>BDP|16026093729018083259</stp>
         <tr r="D588" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4244489397</v>
+        <v>#N/A Requesting Data...1802467640</v>
         <stp/>
         <stp>BDP|15643786772923120898</stp>
         <tr r="D513" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4232872625</v>
+        <v>#N/A Requesting Data...2932917336</v>
         <stp/>
         <stp>BDP|13950831853669683875</stp>
         <tr r="D141" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4267289901</v>
+        <v>#N/A Requesting Data...2850962098</v>
         <stp/>
         <stp>BDP|10203716481098356891</stp>
         <tr r="D378" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4234983121</v>
+        <v>#N/A Requesting Data...1066715933</v>
         <stp/>
         <stp>BDP|16081571685223984708</stp>
         <tr r="D217" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4261152343</v>
+        <v>#N/A Requesting Data...4038140038</v>
         <stp/>
         <stp>BDP|12087348692815588284</stp>
         <tr r="D506" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...607349387</v>
         <stp/>
         <stp>BDP|15422832002240955212</stp>
         <tr r="D220" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4255465954</v>
+        <v>#N/A Requesting Data...941806248</v>
         <stp/>
         <stp>BDP|16991874719721255196</stp>
         <tr r="D151" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4241744881</v>
+        <v>#N/A Requesting Data...4252347550</v>
         <stp/>
         <stp>BDP|15563754854189180195</stp>
         <tr r="D111" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4221434511</v>
+        <v>#N/A Requesting Data...1065533396</v>
         <stp/>
         <stp>BDP|18233671528421709260</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...727334151</v>
         <stp/>
         <stp>BDP|12347098919639931548</stp>
         <tr r="D468" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4293030751</v>
+        <v>#N/A Requesting Data...1927425200</v>
         <stp/>
         <stp>BDP|15040650453540137969</stp>
         <tr r="D33" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4216162375</v>
+        <v>#N/A Requesting Data...2372058217</v>
         <stp/>
         <stp>BDP|14713044783876268534</stp>
         <tr r="D112" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4253847967</v>
+        <v>#N/A Requesting Data...2693562226</v>
         <stp/>
         <stp>BDP|11777964681768087705</stp>
         <tr r="D163" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4266217433</v>
+        <v>#N/A Requesting Data...2602869575</v>
         <stp/>
         <stp>BDP|10072918796386593924</stp>
         <tr r="D349" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4289907553</v>
+        <v>#N/A Requesting Data...4074114527</v>
         <stp/>
         <stp>BDP|12579789340769757796</stp>
         <tr r="D201" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4245672993</v>
+        <v>#N/A Requesting Data...763960290</v>
         <stp/>
         <stp>BDP|17186185790582225282</stp>
         <tr r="D360" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1882117965</v>
         <stp/>
         <stp>BDP|11186736915029448107</stp>
         <tr r="D467" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4219080589</v>
+        <v>#N/A Requesting Data...3988221108</v>
         <stp/>
         <stp>BDP|18445632104784101507</stp>
         <tr r="D74" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4220608796</v>
+        <v>#N/A Requesting Data...3679661369</v>
         <stp/>
         <stp>BDP|13750348676750788876</stp>
         <tr r="D241" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4260501936</v>
+        <v>#N/A Requesting Data...3272118939</v>
         <stp/>
         <stp>BDP|12648313194561206588</stp>
         <tr r="D224" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4262694470</v>
+        <v>#N/A Requesting Data...2700561500</v>
         <stp/>
         <stp>BDP|11255287860608146111</stp>
         <tr r="D247" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4269201275</v>
+        <v>#N/A Requesting Data...1871097655</v>
         <stp/>
         <stp>BDP|11060498389153524295</stp>
         <tr r="D41" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4229401652</v>
+        <v>#N/A Requesting Data...1285634620</v>
         <stp/>
         <stp>BDP|15082279357316840845</stp>
         <tr r="D82" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4249502829</v>
+        <v>#N/A Requesting Data...462768252</v>
         <stp/>
         <stp>BDP|13018792333298038367</stp>
         <tr r="D337" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4293649693</v>
+        <v>#N/A Requesting Data...740850414</v>
         <stp/>
         <stp>BDP|16034078399554387724</stp>
         <tr r="D67" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4265843246</v>
+        <v>#N/A Requesting Data...1577312541</v>
         <stp/>
         <stp>BDP|11017677302663987838</stp>
         <tr r="D330" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...713114170</v>
         <stp/>
         <stp>BDP|16288956325890435193</stp>
         <tr r="D428" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1634446308</v>
         <stp/>
         <stp>BDP|16508737268469692262</stp>
         <tr r="D394" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4239154885</v>
+        <v>#N/A Requesting Data...1744139667</v>
         <stp/>
         <stp>BDP|17489309769416190823</stp>
         <tr r="D35" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4282420573</v>
+        <v>#N/A Requesting Data...2126072137</v>
         <stp/>
         <stp>BDP|10327924102764509176</stp>
         <tr r="D259" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4264868660</v>
+        <v>#N/A Requesting Data...2404571546</v>
         <stp/>
         <stp>BDP|14214668141508133267</stp>
         <tr r="D319" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4290698941</v>
+        <v>#N/A Requesting Data...2372071535</v>
         <stp/>
         <stp>BDP|10159155091567349325</stp>
         <tr r="D73" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2088949813</v>
         <stp/>
         <stp>BDP|18219580234070987204</stp>
         <tr r="D335" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4252755224</v>
+        <v>#N/A Requesting Data...1966864713</v>
         <stp/>
         <stp>BDP|10096541094276701606</stp>
         <tr r="D71" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4266439668</v>
+        <v>#N/A Requesting Data...3344334968</v>
         <stp/>
         <stp>BDP|15716824664276581128</stp>
         <tr r="D18" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2520293708</v>
         <stp/>
         <stp>BDP|11650399697931413745</stp>
         <tr r="D320" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4245360943</v>
+        <v>#N/A Requesting Data...2011189764</v>
         <stp/>
         <stp>BDP|14984926737482124165</stp>
         <tr r="D72" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4283861232</v>
+        <v>#N/A Requesting Data...720233637</v>
         <stp/>
         <stp>BDP|17736931112035313788</stp>
         <tr r="D555" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4251772355</v>
+        <v>#N/A Requesting Data...3209601861</v>
         <stp/>
         <stp>BDP|11415978518523302750</stp>
         <tr r="D19" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4257552432</v>
+        <v>#N/A Requesting Data...1351450788</v>
         <stp/>
         <stp>BDP|10594587902099698143</stp>
         <tr r="D172" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1141142228</v>
         <stp/>
         <stp>BDP|12842945982549795755</stp>
         <tr r="D361" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2073299000</v>
         <stp/>
         <stp>BDP|13326252000554807827</stp>
         <tr r="D343" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3713499260</v>
         <stp/>
         <stp>BDP|11267866972967012490</stp>
         <tr r="D432" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4284839808</v>
+        <v>#N/A Requesting Data...3831170524</v>
         <stp/>
         <stp>BDP|10145694666555196814</stp>
         <tr r="D116" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4259266324</v>
+        <v>#N/A Requesting Data...1973538446</v>
         <stp/>
         <stp>BDP|18091252167988074906</stp>
         <tr r="D310" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4280662753</v>
+        <v>#N/A Requesting Data...776239536</v>
         <stp/>
         <stp>BDP|16779559517576091909</stp>
         <tr r="D164" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2156895999</v>
         <stp/>
         <stp>BDP|18308906582367594305</stp>
         <tr r="D547" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4043333452</v>
         <stp/>
         <stp>BDP|11485193597021552588</stp>
         <tr r="D419" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4259123292</v>
+        <v>#N/A Requesting Data...2665845312</v>
         <stp/>
         <stp>BDP|17671531230038389404</stp>
         <tr r="D562" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1910314925</v>
         <stp/>
         <stp>BDP|17944671009275579949</stp>
         <tr r="D485" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4274035921</v>
+        <v>#N/A Requesting Data...2791339555</v>
         <stp/>
         <stp>BDP|12888920157895325971</stp>
         <tr r="D492" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2915810694</v>
         <stp/>
         <stp>BDP|14384728205156821752</stp>
         <tr r="D558" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3952095387</v>
         <stp/>
         <stp>BDP|12956955985050388128</stp>
         <tr r="D499" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2509263220</v>
         <stp/>
         <stp>BDP|14207353745486106780</stp>
         <tr r="D546" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4264091044</v>
+        <v>#N/A Requesting Data...3110928372</v>
         <stp/>
         <stp>BDP|15487370700661807577</stp>
         <tr r="D563" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4263603241</v>
+        <v>#N/A Requesting Data...4048114437</v>
         <stp/>
         <stp>BDP|16390891586697091303</stp>
         <tr r="D386" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4292774797</v>
+        <v>#N/A Requesting Data...2876367198</v>
         <stp/>
         <stp>BDP|13914702938727660298</stp>
         <tr r="D158" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4280648080</v>
+        <v>#N/A Requesting Data...2627646705</v>
         <stp/>
         <stp>BDP|12205733039972473628</stp>
         <tr r="D245" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4286389681</v>
+        <v>#N/A Requesting Data...1493094178</v>
         <stp/>
         <stp>BDP|13323312610317153427</stp>
         <tr r="D365" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4278362392</v>
+        <v>#N/A Requesting Data...3570665713</v>
         <stp/>
         <stp>BDP|15485684705274090592</stp>
         <tr r="D314" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4278964340</v>
+        <v>#N/A Requesting Data...2973670161</v>
         <stp/>
         <stp>BDP|12381802294931724032</stp>
         <tr r="D63" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4288192043</v>
+        <v>#N/A Requesting Data...1216693632</v>
         <stp/>
         <stp>BDP|16128417127416132452</stp>
         <tr r="D143" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3947669264</v>
         <stp/>
         <stp>BDP|13314951595610858199</stp>
         <tr r="D396" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4286169336</v>
+        <v>#N/A Requesting Data...856360351</v>
         <stp/>
         <stp>BDP|10647601262710524232</stp>
         <tr r="D22" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3644517025</v>
         <stp/>
         <stp>BDP|12170321605385703640</stp>
         <tr r="D586" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4289610207</v>
+        <v>#N/A Requesting Data...3865734459</v>
         <stp/>
         <stp>BDP|10251271759446819315</stp>
         <tr r="D321" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4294821087</v>
+        <v>#N/A Requesting Data...859015364</v>
         <stp/>
         <stp>BDP|14749102142477276435</stp>
         <tr r="D252" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4279664418</v>
+        <v>#N/A Requesting Data...3459044937</v>
         <stp/>
         <stp>BDP|13097137766463547571</stp>
         <tr r="D166" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4280784235</v>
+        <v>#N/A Requesting Data...3420977528</v>
         <stp/>
         <stp>BDP|10022795212553512788</stp>
         <tr r="D415" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4281249868</v>
+        <v>#N/A Requesting Data...510452210</v>
         <stp/>
         <stp>BDP|11670267993698035058</stp>
         <tr r="D226" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4290692515</v>
+        <v>#N/A Requesting Data...1562964143</v>
         <stp/>
         <stp>BDP|10910478370500958118</stp>
         <tr r="D26" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3935665189</v>
         <stp/>
         <stp>BDP|10811766400763548723</stp>
         <tr r="D391" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3255859160</v>
         <stp/>
         <stp>BDP|10703131378317158258</stp>
         <tr r="D385" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4294317459</v>
+        <v>#N/A Requesting Data...2342932655</v>
         <stp/>
         <stp>BDP|15027715085688829177</stp>
         <tr r="D236" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4286102745</v>
+        <v>#N/A Requesting Data...1519858084</v>
         <stp/>
         <stp>BDP|11939128969835106094</stp>
         <tr r="D113" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2940786773</v>
         <stp/>
         <stp>BDP|10715237403329285889</stp>
         <tr r="D535" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3783733888</v>
         <stp/>
         <stp>BDP|16300745519763116031</stp>
         <tr r="D533" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1828407612</v>
         <stp/>
         <stp>BDP|14757059765145947416</stp>
         <tr r="D495" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2870072284</v>
         <stp/>
         <stp>BDP|15233694536795741657</stp>
         <tr r="D296" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4286740067</v>
         <stp/>
         <stp>BDP|10868308007497694781</stp>
         <tr r="D212" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4288075552</v>
+        <v>#N/A Requesting Data...1691369745</v>
         <stp/>
         <stp>BDP|13576587303225983020</stp>
         <tr r="D393" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3380277167</v>
         <stp/>
         <stp>BDP|13233798871599870978</stp>
         <tr r="D501" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4294184415</v>
+        <v>#N/A Requesting Data...2728807786</v>
         <stp/>
         <stp>BDP|16302534045340242427</stp>
         <tr r="D463" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4293217940</v>
+        <v>#N/A Requesting Data...3261797293</v>
         <stp/>
         <stp>BDP|11236970886847641416</stp>
         <tr r="D139" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3715062733</v>
         <stp/>
         <stp>BDP|11250544236700405402</stp>
         <tr r="D445" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4294112685</v>
+        <v>#N/A Requesting Data...2781241473</v>
         <stp/>
         <stp>BDP|13104492506126068287</stp>
         <tr r="D242" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3579199505</v>
         <stp/>
         <stp>BDP|15151413762184373390</stp>
         <tr r="D465" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3612878039</v>
+        <v>#N/A Requesting Data...3682310083</v>
         <stp/>
         <stp>BDP|13108093994608039241</stp>
         <tr r="D88" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2605190330</v>
+        <v>#N/A Requesting Data...1586554263</v>
         <stp/>
         <stp>BDP|13905897685930790390</stp>
         <tr r="D185" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3997876588</v>
         <stp/>
         <stp>BDP|13283842173839337592</stp>
         <tr r="D559" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2983278970</v>
+        <v>#N/A Requesting Data...2561613841</v>
         <stp/>
         <stp>BDP|15450981830706451974</stp>
         <tr r="D234" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2269633116</v>
+        <v>#N/A Requesting Data...1340305613</v>
         <stp/>
         <stp>BDP|17562294566076414517</stp>
         <tr r="D539" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1771267171</v>
         <stp/>
         <stp>BDP|10784779746532370148</stp>
         <tr r="D412" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2719623405</v>
+        <v>#N/A Requesting Data...778711311</v>
         <stp/>
         <stp>BDP|16994081820262216629</stp>
         <tr r="D32" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3571399882</v>
         <stp/>
         <stp>BDP|10522890148265570913</stp>
         <tr r="D488" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...713370716</v>
         <stp/>
         <stp>BDP|15637724752244563349</stp>
         <tr r="D483" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1987876932</v>
+        <v>#N/A Requesting Data...912281709</v>
         <stp/>
         <stp>BDP|15760863175538200215</stp>
         <tr r="D179" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...827990287</v>
+        <v>#N/A Requesting Data...3638396316</v>
         <stp/>
         <stp>BDP|16687246334372728579</stp>
         <tr r="D525" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3585242544</v>
         <stp/>
         <stp>BDP|11208501170434598718</stp>
         <tr r="D96" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...227497099</v>
+        <v>#N/A Requesting Data...730757472</v>
         <stp/>
         <stp>BDP|12609542046271408398</stp>
         <tr r="D65" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1185643836</v>
+        <v>#N/A Requesting Data...2529966208</v>
         <stp/>
         <stp>BDP|15469027550349877877</stp>
         <tr r="D235" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1018798182</v>
+        <v>#N/A Requesting Data...2456992175</v>
         <stp/>
         <stp>BDP|11367997991317820785</stp>
         <tr r="D263" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...554205767</v>
+        <v>#N/A Requesting Data...1291813873</v>
         <stp/>
         <stp>BDP|12820117795702003977</stp>
         <tr r="D129" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3153768850</v>
         <stp/>
         <stp>BDP|15264991111529252528</stp>
         <tr r="D540" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2056026784</v>
+        <v>#N/A Requesting Data...1278675100</v>
         <stp/>
         <stp>BDP|12366900629571912994</stp>
         <tr r="D454" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4293067951</v>
+        <v>#N/A Requesting Data...2308074409</v>
         <stp/>
         <stp>BDP|16169615241666922345</stp>
         <tr r="D532" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...589079600</v>
         <stp/>
         <stp>BDP|13726011124796725694</stp>
         <tr r="D528" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3152721759</v>
         <stp/>
         <stp>BDP|16894163460907170703</stp>
         <tr r="D413" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...66120953</v>
+        <v>#N/A Requesting Data...971759912</v>
         <stp/>
         <stp>BDP|13702737840426277786</stp>
         <tr r="D204" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1623798287</v>
         <stp/>
         <stp>BDP|10153802031663337929</stp>
         <tr r="D504" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...260622179</v>
+        <v>#N/A Requesting Data...2250957302</v>
         <stp/>
         <stp>BDP|13066034642876576054</stp>
         <tr r="D520" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3352949457</v>
         <stp/>
         <stp>BDP|16340699605622724396</stp>
         <tr r="D4" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1895747540</v>
+        <v>#N/A Requesting Data...980347460</v>
         <stp/>
         <stp>BDP|17645679353424750150</stp>
         <tr r="D549" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2664257465</v>
+        <v>#N/A Requesting Data...3729570809</v>
         <stp/>
         <stp>BDP|14320582714404582590</stp>
         <tr r="D327" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1276734405</v>
+        <v>#N/A Requesting Data...3923468045</v>
         <stp/>
         <stp>BDP|12374037063087258227</stp>
         <tr r="D92" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1816038127</v>
+        <v>#N/A Requesting Data...1072207483</v>
         <stp/>
         <stp>BDP|18021314433950117962</stp>
         <tr r="D305" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1136030513</v>
+        <v>#N/A Requesting Data...2469172597</v>
         <stp/>
         <stp>BDP|16661746631460270341</stp>
         <tr r="D59" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1077327994</v>
         <stp/>
         <stp>BDP|16139009584989735677</stp>
         <tr r="D493" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1927761268</v>
+        <v>#N/A Requesting Data...1054717197</v>
         <stp/>
         <stp>BDP|18392111986674204411</stp>
         <tr r="D99" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1909500437</v>
+        <v>#N/A Requesting Data...3021425590</v>
         <stp/>
         <stp>BDP|13266165674551253555</stp>
         <tr r="D584" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3031547960</v>
+        <v>#N/A Requesting Data...1771766785</v>
         <stp/>
         <stp>BDP|16538600821372065125</stp>
         <tr r="D140" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1260508919</v>
+        <v>#N/A Requesting Data...638741715</v>
         <stp/>
         <stp>BDP|12236361903354152400</stp>
         <tr r="D198" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...910005518</v>
+        <v>#N/A Requesting Data...2216064329</v>
         <stp/>
         <stp>BDP|11972320470551574278</stp>
         <tr r="D57" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2901908710</v>
         <stp/>
         <stp>BDP|13438025448194422534</stp>
         <tr r="D351" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1070138508</v>
         <stp/>
         <stp>BDP|14650585776218060810</stp>
         <tr r="D348" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3621333533</v>
+        <v>#N/A Requesting Data...3892694049</v>
         <stp/>
         <stp>BDP|15485576618802696566</stp>
         <tr r="D108" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1748812184</v>
         <stp/>
         <stp>BDP|17192821848568156517</stp>
         <tr r="D451" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...203577120</v>
+        <v>#N/A Requesting Data...3571480134</v>
         <stp/>
         <stp>BDP|11028997372759591059</stp>
         <tr r="D449" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1390376476</v>
+        <v>#N/A Requesting Data...2096837594</v>
         <stp/>
         <stp>BDP|12928854088544978010</stp>
         <tr r="D168" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2016762242</v>
+        <v>#N/A Requesting Data...2543251232</v>
         <stp/>
         <stp>BDP|11858753862823839583</stp>
         <tr r="D222" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1963660454</v>
         <stp/>
         <stp>BDP|18088474311458072398</stp>
         <tr r="D338" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2665371261</v>
+        <v>#N/A Requesting Data...705068867</v>
         <stp/>
         <stp>BDP|10554615992340870911</stp>
         <tr r="D162" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2514775955</v>
+        <v>#N/A Requesting Data...3024605070</v>
         <stp/>
         <stp>BDP|11158599031040508123</stp>
         <tr r="D49" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2673931176</v>
         <stp/>
         <stp>BDP|16903117249272927768</stp>
         <tr r="D153" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1818035117</v>
         <stp/>
         <stp>BDP|16528149873400913659</stp>
         <tr r="D496" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2260849995</v>
+        <v>#N/A Requesting Data...1803398828</v>
         <stp/>
         <stp>BDP|14477493111353519489</stp>
         <tr r="D157" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1412445466</v>
+        <v>#N/A Requesting Data...896728015</v>
         <stp/>
         <stp>BDP|12676421250643548602</stp>
         <tr r="D480" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2984885038</v>
+        <v>#N/A Requesting Data...1941562853</v>
         <stp/>
         <stp>BDP|12834375803074882344</stp>
         <tr r="D227" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2243816551</v>
         <stp/>
         <stp>BDP|14033553395358471644</stp>
         <tr r="D367" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3778948102</v>
+        <v>#N/A Requesting Data...2008974655</v>
         <stp/>
         <stp>BDP|12730229413000274748</stp>
         <tr r="D401" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1881796209</v>
+        <v>#N/A Requesting Data...1742389854</v>
         <stp/>
         <stp>BDP|14573204369812726486</stp>
         <tr r="D251" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3558813110</v>
         <stp/>
         <stp>BDP|12278073778620764393</stp>
         <tr r="D331" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...654865022</v>
+        <v>#N/A Requesting Data...3617418971</v>
         <stp/>
         <stp>BDP|15357110614897143423</stp>
         <tr r="D28" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1630258142</v>
         <stp/>
         <stp>BDP|11629781892348830116</stp>
         <tr r="D552" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1902154356</v>
         <stp/>
         <stp>BDP|12384116645427329600</stp>
         <tr r="D436" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3263774902</v>
+        <v>#N/A Requesting Data...2722356799</v>
         <stp/>
         <stp>BDP|16598251105027212500</stp>
         <tr r="D228" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1921065775</v>
         <stp/>
         <stp>BDP|15327473017427272160</stp>
         <tr r="D392" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...928021941</v>
+        <v>#N/A Requesting Data...2504481993</v>
         <stp/>
         <stp>BDP|10638185858702371020</stp>
         <tr r="D31" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1441007663</v>
         <stp/>
         <stp>BDP|16109719660818306952</stp>
         <tr r="D564" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1454958291</v>
         <stp/>
         <stp>BDP|13940619371823197614</stp>
         <tr r="D382" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2164551698</v>
+        <v>#N/A Requesting Data...4061358967</v>
         <stp/>
         <stp>BDP|16679837039722107844</stp>
         <tr r="D543" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1813991134</v>
+        <v>#N/A Requesting Data...1815853378</v>
         <stp/>
         <stp>BDP|10226623571365007383</stp>
         <tr r="D70" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2736266738</v>
         <stp/>
         <stp>BDP|15788327046200913501</stp>
         <tr r="D103" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1246804028</v>
+        <v>#N/A Requesting Data...2124179151</v>
         <stp/>
         <stp>BDP|11645472449562339411</stp>
         <tr r="D316" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1362489285</v>
+        <v>#N/A Requesting Data...900996511</v>
         <stp/>
         <stp>BDP|12176047634383479586</stp>
         <tr r="D102" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1540163568</v>
+        <v>#N/A Requesting Data...1936201430</v>
         <stp/>
         <stp>BDP|12965772700751131321</stp>
         <tr r="D11" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1893252860</v>
         <stp/>
         <stp>BDP|14492683184025366843</stp>
         <tr r="D509" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1795125361</v>
+        <v>#N/A Requesting Data...3418615363</v>
         <stp/>
         <stp>BDP|13621156919710112459</stp>
         <tr r="D505" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...910234463</v>
         <stp/>
         <stp>BDP|10612094947086786516</stp>
         <tr r="D476" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4259328639</v>
+        <v>#N/A Requesting Data...692313457</v>
         <stp/>
         <stp>BDP|11766851994124171367</stp>
         <tr r="D206" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3564164753</v>
+        <v>#N/A Requesting Data...2211425725</v>
         <stp/>
         <stp>BDP|15751556461691453064</stp>
         <tr r="D56" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3738826631</v>
+        <v>#N/A Requesting Data...4032119499</v>
         <stp/>
         <stp>BDP|17430058153027313218</stp>
         <tr r="D199" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2310913325</v>
+        <v>#N/A Requesting Data...4078888519</v>
         <stp/>
         <stp>BDP|13410803446581281909</stp>
         <tr r="D303" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2522632485</v>
+        <v>#N/A Requesting Data...2208959205</v>
         <stp/>
         <stp>BDP|14214024771250412450</stp>
         <tr r="D69" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3025177383</v>
+        <v>#N/A Requesting Data...3002395905</v>
         <stp/>
         <stp>BDP|17567428413495056073</stp>
         <tr r="D89" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3914020112</v>
+        <v>#N/A Requesting Data...4176915507</v>
         <stp/>
         <stp>BDP|10210200937601583733</stp>
         <tr r="D180" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3315449133</v>
+        <v>#N/A Requesting Data...1628157513</v>
         <stp/>
         <stp>BDP|10293556900733412178</stp>
         <tr r="D97" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2020753196</v>
+        <v>#N/A Requesting Data...1656486472</v>
         <stp/>
         <stp>BDP|11695358075697338523</stp>
         <tr r="D294" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1619232937</v>
         <stp/>
         <stp>BDP|14006055271880900757</stp>
         <tr r="D479" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1610775090</v>
+        <v>#N/A Requesting Data...2986456783</v>
         <stp/>
         <stp>BDP|12910810023405018933</stp>
         <tr r="D502" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1991404367</v>
+        <v>#N/A Requesting Data...2737697507</v>
         <stp/>
         <stp>BDP|11048718063874713084</stp>
         <tr r="D295" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1063565124</v>
         <stp/>
         <stp>BDP|13780959142678828255</stp>
         <tr r="D458" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2490090050</v>
         <stp/>
         <stp>BDP|14982632061692128279</stp>
         <tr r="D430" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...589279258</v>
+        <v>#N/A Requesting Data...687781927</v>
         <stp/>
         <stp>BDP|17489095340364755366</stp>
         <tr r="D388" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2455251556</v>
         <stp/>
         <stp>BDP|14154434549619749934</stp>
         <tr r="D461" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1191976170</v>
+        <v>#N/A Requesting Data...2094560663</v>
         <stp/>
         <stp>BDP|16171649309956210209</stp>
         <tr r="D200" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...656355151</v>
         <stp/>
         <stp>BDP|17738622573885864709</stp>
         <tr r="D529" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...525833524</v>
+        <v>#N/A Requesting Data...4146059442</v>
         <stp/>
         <stp>BDP|16357139949901679616</stp>
         <tr r="D551" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...669610634</v>
+        <v>#N/A Requesting Data...2559344863</v>
         <stp/>
         <stp>BDP|11975136771094310792</stp>
         <tr r="D322" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3067880067</v>
+        <v>#N/A Requesting Data...3278766630</v>
         <stp/>
         <stp>BDP|10411824585493459779</stp>
         <tr r="D270" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2130601986</v>
         <stp/>
         <stp>BDP|15265204922544150514</stp>
         <tr r="D484" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2766324165</v>
         <stp/>
         <stp>BDP|16769656722202312408</stp>
         <tr r="D399" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1460194300</v>
+        <v>#N/A Requesting Data...2397146078</v>
         <stp/>
         <stp>BDP|17611076792082454852</stp>
         <tr r="D363" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2095608959</v>
         <stp/>
         <stp>BDP|13134562330161259073</stp>
         <tr r="D585" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2720622929</v>
         <stp/>
         <stp>BDP|12871185857632217006</stp>
         <tr r="D155" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2244930970</v>
+        <v>#N/A Requesting Data...3485650818</v>
         <stp/>
         <stp>BDP|16134536803102189546</stp>
         <tr r="D83" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1902699379</v>
+        <v>#N/A Requesting Data...1882925488</v>
         <stp/>
         <stp>BDP|14328250418885925632</stp>
         <tr r="D84" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3982966279</v>
+        <v>#N/A Requesting Data...3889336400</v>
         <stp/>
         <stp>BDP|14934686065876684669</stp>
         <tr r="D481" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1659360851</v>
+        <v>#N/A Requesting Data...3583189484</v>
         <stp/>
         <stp>BDP|17963550531373117687</stp>
         <tr r="D225" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2111866014</v>
+        <v>#N/A Requesting Data...771632208</v>
         <stp/>
         <stp>BDP|16895936320721591899</stp>
         <tr r="D497" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4243714310</v>
+        <v>#N/A Requesting Data...1407286790</v>
         <stp/>
         <stp>BDP|16458841682844237679</stp>
         <tr r="D420" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1328976735</v>
+        <v>#N/A Requesting Data...1544659415</v>
         <stp/>
         <stp>BDP|14440303204491185270</stp>
         <tr r="D171" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3191630168</v>
+        <v>#N/A Requesting Data...1061168408</v>
         <stp/>
         <stp>BDP|14165715331463152764</stp>
         <tr r="D371" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...951332972</v>
+        <v>#N/A Requesting Data...3713928782</v>
         <stp/>
         <stp>BDP|15605708855175923735</stp>
         <tr r="D95" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...914306116</v>
+        <v>#N/A Requesting Data...2776117556</v>
         <stp/>
         <stp>BDP|14405119893020935975</stp>
         <tr r="D75" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...575602241</v>
+        <v>#N/A Requesting Data...3024360447</v>
         <stp/>
         <stp>BDP|15767153234412924075</stp>
         <tr r="D177" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...873623638</v>
+        <v>#N/A Requesting Data...869326211</v>
         <stp/>
         <stp>BDP|14059473339945099355</stp>
         <tr r="D580" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3184467023</v>
+        <v>#N/A Requesting Data...3626764057</v>
         <stp/>
         <stp>BDP|14264765733443828644</stp>
         <tr r="D9" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2567446236</v>
+        <v>#N/A Requesting Data...1945805003</v>
         <stp/>
         <stp>BDP|18273378097007086097</stp>
         <tr r="D302" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1074217595</v>
+        <v>#N/A Requesting Data...2367771102</v>
         <stp/>
         <stp>BDP|11895865234956147910</stp>
         <tr r="D379" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4015995597</v>
         <stp/>
         <stp>BDP|16982959482033162150</stp>
         <tr r="D421" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2709515012</v>
+        <v>#N/A Requesting Data...1752766230</v>
         <stp/>
         <stp>BDP|13586216918044734164</stp>
         <tr r="D80" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2146391609</v>
         <stp/>
         <stp>BDP|11217978724517557889</stp>
         <tr r="D466" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1852275110</v>
+        <v>#N/A Requesting Data...3001543958</v>
         <stp/>
         <stp>BDP|17018395540714763103</stp>
         <tr r="D589" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...774321035</v>
+        <v>#N/A Requesting Data...1132626756</v>
         <stp/>
         <stp>BDP|11382653934608536966</stp>
         <tr r="D344" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4174146305</v>
+        <v>#N/A Requesting Data...2608854403</v>
         <stp/>
         <stp>BDP|15505903805289095019</stp>
         <tr r="D424" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2005958463</v>
+        <v>#N/A Requesting Data...1551793814</v>
         <stp/>
         <stp>BDP|16883807256079921772</stp>
         <tr r="D24" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...293726477</v>
+        <v>#N/A Requesting Data...2938881731</v>
         <stp/>
         <stp>BDP|14952619124202580797</stp>
         <tr r="D195" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1449973405</v>
+        <v>#N/A Requesting Data...1818897949</v>
         <stp/>
         <stp>BDP|14910103472521146697</stp>
         <tr r="D311" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1229758525</v>
         <stp/>
         <stp>BDP|11334666327558605816</stp>
         <tr r="D477" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3068294880</v>
+        <v>#N/A Requesting Data...813136032</v>
         <stp/>
         <stp>BDP|13699391622210844735</stp>
         <tr r="D53" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2000333537</v>
         <stp/>
         <stp>BDP|14503831410191139918</stp>
         <tr r="D503" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2644291351</v>
+        <v>#N/A Requesting Data...1599165885</v>
         <stp/>
         <stp>BDP|14315355472065754058</stp>
         <tr r="D117" s="1"/>
@@ -3577,1837 +3577,1837 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...316779310</v>
+        <v>#N/A Requesting Data...3198508228</v>
         <stp/>
         <stp>BDP|7623050384811565284</stp>
         <tr r="D456" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2261307737</v>
+        <v>#N/A Requesting Data...1630748813</v>
         <stp/>
         <stp>BDP|1639870690614204895</stp>
         <tr r="D283" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3913932633</v>
         <stp/>
         <stp>BDP|7243076913818545285</stp>
         <tr r="D507" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2538256043</v>
+        <v>#N/A Requesting Data...1589699777</v>
         <stp/>
         <stp>BDP|8226930168399527275</stp>
         <tr r="D128" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...232305551</v>
+        <v>#N/A Requesting Data...1389489565</v>
         <stp/>
         <stp>BDP|9726871053711847932</stp>
         <tr r="D186" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3375803529</v>
+        <v>#N/A Requesting Data...2693075766</v>
         <stp/>
         <stp>BDP|9497836528218660747</stp>
         <tr r="D52" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2647924416</v>
+        <v>#N/A Requesting Data...3770080242</v>
         <stp/>
         <stp>BDP|8111275640784203693</stp>
         <tr r="D575" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3866453658</v>
+        <v>#N/A Requesting Data...740557307</v>
         <stp/>
         <stp>BDP|9193067224492806592</stp>
         <tr r="D366" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3271735701</v>
+        <v>#N/A Requesting Data...2082107691</v>
         <stp/>
         <stp>BDP|6738941727803649205</stp>
         <tr r="D342" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1504504360</v>
         <stp/>
         <stp>BDP|2772095382833635584</stp>
         <tr r="D472" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2510579103</v>
+        <v>#N/A Requesting Data...2094053390</v>
         <stp/>
         <stp>BDP|9536108630005175278</stp>
         <tr r="D29" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2371518237</v>
+        <v>#N/A Requesting Data...3782232066</v>
         <stp/>
         <stp>BDP|6784772766698072363</stp>
         <tr r="D187" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3574331011</v>
+        <v>#N/A Requesting Data...4223925725</v>
         <stp/>
         <stp>BDP|9893747310534920752</stp>
         <tr r="D368" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1573644923</v>
+        <v>#N/A Requesting Data...3543280919</v>
         <stp/>
         <stp>BDP|9816011918836325221</stp>
         <tr r="D219" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2684102983</v>
+        <v>#N/A Requesting Data...2620400298</v>
         <stp/>
         <stp>BDP|8933781651680340636</stp>
         <tr r="D189" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2820831552</v>
+        <v>#N/A Requesting Data...1810194809</v>
         <stp/>
         <stp>BDP|2493805631473219662</stp>
         <tr r="D215" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3352090555</v>
+        <v>#N/A Requesting Data...3820134118</v>
         <stp/>
         <stp>BDP|1924192329366049887</stp>
         <tr r="D332" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1149700585</v>
+        <v>#N/A Requesting Data...1855534648</v>
         <stp/>
         <stp>BDP|4599658466598383039</stp>
         <tr r="D197" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1022580680</v>
         <stp/>
         <stp>BDP|4734802498351823809</stp>
         <tr r="D422" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3769063514</v>
+        <v>#N/A Requesting Data...3307260588</v>
         <stp/>
         <stp>BDP|8738485985869825152</stp>
         <tr r="D534" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4241099517</v>
+        <v>#N/A Requesting Data...1207647479</v>
         <stp/>
         <stp>BDP|2868991425637522243</stp>
         <tr r="D556" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1952623907</v>
         <stp/>
         <stp>BDP|4886320651247275828</stp>
         <tr r="D126" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...867761765</v>
+        <v>#N/A Requesting Data...2639584646</v>
         <stp/>
         <stp>BDP|6054904808547626501</stp>
         <tr r="D239" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1416283165</v>
+        <v>#N/A Requesting Data...3662008972</v>
         <stp/>
         <stp>BDP|4165772881303842502</stp>
         <tr r="D21" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3618905612</v>
         <stp/>
         <stp>BDP|6358533107418304681</stp>
         <tr r="D537" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3806290461</v>
+        <v>#N/A Requesting Data...810046063</v>
         <stp/>
         <stp>BDP|1584911349124970593</stp>
         <tr r="D418" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3632338202</v>
+        <v>#N/A Requesting Data...2260488541</v>
         <stp/>
         <stp>BDP|6294497581632428536</stp>
         <tr r="D372" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3336088580</v>
+        <v>#N/A Requesting Data...2713186304</v>
         <stp/>
         <stp>BDP|7804752713578077434</stp>
         <tr r="D48" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3137302517</v>
+        <v>#N/A Requesting Data...3031858908</v>
         <stp/>
         <stp>BDP|8000248422975254092</stp>
         <tr r="D94" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2555830045</v>
+        <v>#N/A Requesting Data...4068949015</v>
         <stp/>
         <stp>BDP|9902293861928289809</stp>
         <tr r="D370" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...335808437</v>
+        <v>#N/A Requesting Data...2545827828</v>
         <stp/>
         <stp>BDP|6133403049878320388</stp>
         <tr r="D325" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1238795093</v>
+        <v>#N/A Requesting Data...3421922176</v>
         <stp/>
         <stp>BDP|9727535323223702031</stp>
         <tr r="D306" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2928691974</v>
         <stp/>
         <stp>BDP|6127197419049389227</stp>
         <tr r="D571" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1946472222</v>
+        <v>#N/A Requesting Data...4129977591</v>
         <stp/>
         <stp>BDP|6094821283188207353</stp>
         <tr r="D107" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3173286421</v>
         <stp/>
         <stp>BDP|6031175296491070275</stp>
         <tr r="D317" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...755350411</v>
         <stp/>
         <stp>BDP|8749193567017735587</stp>
         <tr r="D560" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...642427239</v>
+        <v>#N/A Requesting Data...1017622949</v>
         <stp/>
         <stp>BDP|9446715963652157715</stp>
         <tr r="D218" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3660005552</v>
         <stp/>
         <stp>BDP|2285355385367559306</stp>
         <tr r="D254" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1348427752</v>
+        <v>#N/A Requesting Data...3914907356</v>
         <stp/>
         <stp>BDP|3377919900382605532</stp>
         <tr r="D374" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2782043524</v>
+        <v>#N/A Requesting Data...2722379413</v>
         <stp/>
         <stp>BDP|7453522301018176725</stp>
         <tr r="D87" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1468571429</v>
+        <v>#N/A Requesting Data...3033230131</v>
         <stp/>
         <stp>BDP|1308349689585926227</stp>
         <tr r="D271" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2198631439</v>
         <stp/>
         <stp>BDP|7855343402469312377</stp>
         <tr r="D207" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1917910021</v>
+        <v>#N/A Requesting Data...2555914614</v>
         <stp/>
         <stp>BDP|9583460284713835858</stp>
         <tr r="D407" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2543944420</v>
+        <v>#N/A Requesting Data...2980829173</v>
         <stp/>
         <stp>BDP|3089794467698124477</stp>
         <tr r="D46" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1856795244</v>
+        <v>#N/A Requesting Data...1968673640</v>
         <stp/>
         <stp>BDP|8394730019619504937</stp>
         <tr r="D132" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1105030668</v>
         <stp/>
         <stp>BDP|8883884209098016656</stp>
         <tr r="D76" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1563031475</v>
+        <v>#N/A Requesting Data...1453784103</v>
         <stp/>
         <stp>BDP|8122536761650498550</stp>
         <tr r="D536" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1806279723</v>
+        <v>#N/A Requesting Data...2725300036</v>
         <stp/>
         <stp>BDP|7453339047569124725</stp>
         <tr r="D150" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2512377527</v>
+        <v>#N/A Requesting Data...1287325664</v>
         <stp/>
         <stp>BDP|7577357505142764827</stp>
         <tr r="D233" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2068964210</v>
         <stp/>
         <stp>BDP|2331805259517323692</stp>
         <tr r="D434" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1857599448</v>
+        <v>#N/A Requesting Data...3066030309</v>
         <stp/>
         <stp>BDP|8552162123980605570</stp>
         <tr r="D307" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3905308455</v>
         <stp/>
         <stp>BDP|5836558290245842234</stp>
         <tr r="D469" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1406737280</v>
+        <v>#N/A Requesting Data...2767904332</v>
         <stp/>
         <stp>BDP|2306149199512209683</stp>
         <tr r="D68" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4000813088</v>
         <stp/>
         <stp>BDP|9269908147763082911</stp>
         <tr r="D510" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1114079160</v>
         <stp/>
         <stp>BDP|3232196262018907246</stp>
         <tr r="D318" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4147642253</v>
+        <v>#N/A Requesting Data...3779495458</v>
         <stp/>
         <stp>BDP|4955062808609747343</stp>
         <tr r="D246" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3258826912</v>
+        <v>#N/A Requesting Data...4069487397</v>
         <stp/>
         <stp>BDP|1722688294446534746</stp>
         <tr r="D298" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1336483867</v>
+        <v>#N/A Requesting Data...3057654744</v>
         <stp/>
         <stp>BDP|1323672309431259951</stp>
         <tr r="D248" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2803618882</v>
         <stp/>
         <stp>BDP|9788636929946362445</stp>
         <tr r="D51" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3447048810</v>
+        <v>#N/A Requesting Data...2446633116</v>
         <stp/>
         <stp>BDP|1530258288214479079</stp>
         <tr r="D346" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...436041027</v>
+        <v>#N/A Requesting Data...1980450887</v>
         <stp/>
         <stp>BDP|9358636045517981357</stp>
         <tr r="D86" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2278565461</v>
+        <v>#N/A Requesting Data...3228778514</v>
         <stp/>
         <stp>BDP|3017892803863663751</stp>
         <tr r="D170" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3380073262</v>
+        <v>#N/A Requesting Data...3642156760</v>
         <stp/>
         <stp>BDP|4287398081092613222</stp>
         <tr r="D304" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3494384763</v>
+        <v>#N/A Requesting Data...4246209380</v>
         <stp/>
         <stp>BDP|9702212431560385792</stp>
         <tr r="D156" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2535852359</v>
+        <v>#N/A Requesting Data...2827944314</v>
         <stp/>
         <stp>BDP|2475470421272895971</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3348645742</v>
         <stp/>
         <stp>BDP|2985262289595087247</stp>
         <tr r="D426" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1090065419</v>
+        <v>#N/A Requesting Data...2131883157</v>
         <stp/>
         <stp>BDP|8092118407590216646</stp>
         <tr r="D289" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3102175679</v>
+        <v>#N/A Requesting Data...1422914752</v>
         <stp/>
         <stp>BDP|5882374297019809911</stp>
         <tr r="D356" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4070338175</v>
+        <v>#N/A Requesting Data...2338012146</v>
         <stp/>
         <stp>BDP|3099892622757851151</stp>
         <tr r="D326" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3119228915</v>
         <stp/>
         <stp>BDP|9196098449071202363</stp>
         <tr r="D446" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2014554805</v>
+        <v>#N/A Requesting Data...2634105458</v>
         <stp/>
         <stp>BDP|4940011471029696259</stp>
         <tr r="D278" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2776672213</v>
         <stp/>
         <stp>BDP|8925989482633184281</stp>
         <tr r="D138" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3660439411</v>
+        <v>#N/A Requesting Data...992208665</v>
         <stp/>
         <stp>BDP|4326595937163076966</stp>
         <tr r="D229" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3542941933</v>
+        <v>#N/A Requesting Data...3608273493</v>
         <stp/>
         <stp>BDP|8310852319881722801</stp>
         <tr r="D93" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3294900561</v>
+        <v>#N/A Requesting Data...2237390686</v>
         <stp/>
         <stp>BDP|8647180025583570068</stp>
         <tr r="D154" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...446013840</v>
+        <v>#N/A Requesting Data...3084732872</v>
         <stp/>
         <stp>BDP|9591862357728023480</stp>
         <tr r="D231" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3997473894</v>
+        <v>#N/A Requesting Data...3058437885</v>
         <stp/>
         <stp>BDP|2376736184992986702</stp>
         <tr r="D148" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3443105146</v>
+        <v>#N/A Requesting Data...3015765657</v>
         <stp/>
         <stp>BDP|4397980744471996074</stp>
         <tr r="D545" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3257578110</v>
         <stp/>
         <stp>BDP|8097652200812551411</stp>
         <tr r="D587" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2504327271</v>
         <stp/>
         <stp>BDP|4745617288346912467</stp>
         <tr r="D409" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1418032735</v>
         <stp/>
         <stp>BDP|2023918701830752311</stp>
         <tr r="D574" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3637777446</v>
         <stp/>
         <stp>BDP|8569623810236292112</stp>
         <tr r="D470" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3522964184</v>
+        <v>#N/A Requesting Data...1435464049</v>
         <stp/>
         <stp>BDP|3551133417799288277</stp>
         <tr r="D131" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...977925535</v>
         <stp/>
         <stp>BDP|1450583398923450654</stp>
         <tr r="D527" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3761644925</v>
+        <v>#N/A Requesting Data...2343048986</v>
         <stp/>
         <stp>BDP|8236278446435877201</stp>
         <tr r="D249" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1887023632</v>
+        <v>#N/A Requesting Data...4104469545</v>
         <stp/>
         <stp>BDP|9033149665613312496</stp>
         <tr r="D79" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1251749676</v>
+        <v>#N/A Requesting Data...2022230236</v>
         <stp/>
         <stp>BDP|4123587993102589346</stp>
         <tr r="D165" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2537659498</v>
+        <v>#N/A Requesting Data...4217725615</v>
         <stp/>
         <stp>BDP|6846058092115500312</stp>
         <tr r="D125" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3501712336</v>
+        <v>#N/A Requesting Data...1137802303</v>
         <stp/>
         <stp>BDP|3091327299045487544</stp>
         <tr r="D250" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4101701692</v>
         <stp/>
         <stp>BDP|8481692292877637901</stp>
         <tr r="D244" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1749671879</v>
+        <v>#N/A Requesting Data...3034006332</v>
         <stp/>
         <stp>BDP|8136255956607343184</stp>
         <tr r="D435" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2906809003</v>
+        <v>#N/A Requesting Data...3805141016</v>
         <stp/>
         <stp>BDP|9440620749352114075</stp>
         <tr r="D12" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2561733751</v>
+        <v>#N/A Requesting Data...3548059255</v>
         <stp/>
         <stp>BDP|7925481559807704869</stp>
         <tr r="D284" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1503358702</v>
+        <v>#N/A Requesting Data...1398865686</v>
         <stp/>
         <stp>BDP|3801820060333595716</stp>
         <tr r="D531" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1602584049</v>
+        <v>#N/A Requesting Data...1378356761</v>
         <stp/>
         <stp>BDP|7034930101581194604</stp>
         <tr r="D364" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3979725732</v>
+        <v>#N/A Requesting Data...1152270539</v>
         <stp/>
         <stp>BDP|7218848724570672446</stp>
         <tr r="D77" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3644655047</v>
         <stp/>
         <stp>BDP|2631777211879045408</stp>
         <tr r="D423" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3126154285</v>
         <stp/>
         <stp>BDP|6289685288420213178</stp>
         <tr r="D427" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4115732990</v>
+        <v>#N/A Requesting Data...3359166186</v>
         <stp/>
         <stp>BDP|4896326759068319347</stp>
         <tr r="D301" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3403476019</v>
+        <v>#N/A Requesting Data...3615845952</v>
         <stp/>
         <stp>BDP|6668119832509858494</stp>
         <tr r="D377" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2818523993</v>
+        <v>#N/A Requesting Data...3833266936</v>
         <stp/>
         <stp>BDP|3227235482723725318</stp>
         <tr r="D268" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1230206391</v>
         <stp/>
         <stp>BDP|9529448341521306165</stp>
         <tr r="D519" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3155797933</v>
+        <v>#N/A Requesting Data...2364198734</v>
         <stp/>
         <stp>BDP|1815156912700842820</stp>
         <tr r="D149" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...737041483</v>
+        <v>#N/A Requesting Data...2545849461</v>
         <stp/>
         <stp>BDP|9918332901022829283</stp>
         <tr r="D257" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...800206386</v>
+        <v>#N/A Requesting Data...1826810483</v>
         <stp/>
         <stp>BDP|8570410628420469403</stp>
         <tr r="D308" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3127419468</v>
+        <v>#N/A Requesting Data...4098345800</v>
         <stp/>
         <stp>BDP|5366710529858496212</stp>
         <tr r="D101" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1970245547</v>
+        <v>#N/A Requesting Data...3391087697</v>
         <stp/>
         <stp>BDP|5295290977009503366</stp>
         <tr r="D137" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3285485051</v>
+        <v>#N/A Requesting Data...962288567</v>
         <stp/>
         <stp>BDP|1607716463123808934</stp>
         <tr r="D121" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4065091146</v>
         <stp/>
         <stp>BDP|9904390111005448478</stp>
         <tr r="D276" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1121848329</v>
+        <v>#N/A Requesting Data...2699525154</v>
         <stp/>
         <stp>BDP|1075940526831975184</stp>
         <tr r="D106" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1752935658</v>
         <stp/>
         <stp>BDP|3451332904323552978</stp>
         <tr r="D489" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2491018732</v>
         <stp/>
         <stp>BDP|5584379463772680863</stp>
         <tr r="D333" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2457334938</v>
         <stp/>
         <stp>BDP|2125938060654101321</stp>
         <tr r="D109" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3173035747</v>
+        <v>#N/A Requesting Data...2539722232</v>
         <stp/>
         <stp>BDP|4870943729911367476</stp>
         <tr r="D273" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1091265175</v>
         <stp/>
         <stp>BDP|9377653440733839289</stp>
         <tr r="D578" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...332258213</v>
+        <v>#N/A Requesting Data...3158329982</v>
         <stp/>
         <stp>BDP|9892995884015450771</stp>
         <tr r="D100" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2922372502</v>
+        <v>#N/A Requesting Data...1239632724</v>
         <stp/>
         <stp>BDP|3034334267899211503</stp>
         <tr r="D54" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3925718968</v>
         <stp/>
         <stp>BDP|7104452733023208929</stp>
         <tr r="D425" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1451214181</v>
+        <v>#N/A Requesting Data...1628992782</v>
         <stp/>
         <stp>BDP|6179752583840472360</stp>
         <tr r="D460" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2578623308</v>
+        <v>#N/A Requesting Data...2776647366</v>
         <stp/>
         <stp>BDP|1509076953006623821</stp>
         <tr r="D286" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1315089415</v>
         <stp/>
         <stp>BDP|9554476425145314015</stp>
         <tr r="D205" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2801856057</v>
         <stp/>
         <stp>BDP|6239748591173887059</stp>
         <tr r="D429" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1690967856</v>
+        <v>#N/A Requesting Data...1635267326</v>
         <stp/>
         <stp>BDP|1820733751689406148</stp>
         <tr r="D64" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2931798963</v>
+        <v>#N/A Requesting Data...1835118685</v>
         <stp/>
         <stp>BDP|2909876244543694673</stp>
         <tr r="D38" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...615339383</v>
+        <v>#N/A Requesting Data...1653914785</v>
         <stp/>
         <stp>BDP|7505840236691418688</stp>
         <tr r="D313" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...794774249</v>
+        <v>#N/A Requesting Data...2488752979</v>
         <stp/>
         <stp>BDP|9248413818921784640</stp>
         <tr r="D576" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2162122046</v>
         <stp/>
         <stp>BDP|3067690985453535517</stp>
         <tr r="D398" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3109489223</v>
+        <v>#N/A Requesting Data...2641308406</v>
         <stp/>
         <stp>BDP|7769694405108217205</stp>
         <tr r="D329" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...450582145</v>
+        <v>#N/A Requesting Data...1627111636</v>
         <stp/>
         <stp>BDP|9359988577525473968</stp>
         <tr r="D297" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3872453141</v>
+        <v>#N/A Requesting Data...1879648841</v>
         <stp/>
         <stp>BDP|5395749799948894898</stp>
         <tr r="D443" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3134076955</v>
+        <v>#N/A Requesting Data...1250393191</v>
         <stp/>
         <stp>BDP|5133580335141437979</stp>
         <tr r="D193" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1928214288</v>
+        <v>#N/A Requesting Data...1695988464</v>
         <stp/>
         <stp>BDP|3937023403621314942</stp>
         <tr r="D221" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1060637948</v>
+        <v>#N/A Requesting Data...1583970895</v>
         <stp/>
         <stp>BDP|9936218804240792047</stp>
         <tr r="D264" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...653203241</v>
+        <v>#N/A Requesting Data...3867646601</v>
         <stp/>
         <stp>BDP|6683723787496846473</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2630683564</v>
+        <v>#N/A Requesting Data...2743924074</v>
         <stp/>
         <stp>BDP|6165591596490232106</stp>
         <tr r="D58" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...807791406</v>
+        <v>#N/A Requesting Data...1084701699</v>
         <stp/>
         <stp>BDP|8617076344793842407</stp>
         <tr r="D280" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1353589202</v>
+        <v>#N/A Requesting Data...2161778959</v>
         <stp/>
         <stp>BDP|1804538441912435934</stp>
         <tr r="D25" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2223072565</v>
+        <v>#N/A Requesting Data...1832804761</v>
         <stp/>
         <stp>BDP|2266425173972059816</stp>
         <tr r="D550" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3821592528</v>
         <stp/>
         <stp>BDP|7759220196935193217</stp>
         <tr r="D566" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2147753815</v>
+        <v>#N/A Requesting Data...3031278535</v>
         <stp/>
         <stp>BDP|9235165796339361326</stp>
         <tr r="D90" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4086924180</v>
+        <v>#N/A Requesting Data...1273254860</v>
         <stp/>
         <stp>BDP|1179954875723744756</stp>
         <tr r="D60" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1605681060</v>
+        <v>#N/A Requesting Data...2292461182</v>
         <stp/>
         <stp>BDP|8410475836822559607</stp>
         <tr r="D8" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2066970300</v>
+        <v>#N/A Requesting Data...926886110</v>
         <stp/>
         <stp>BDP|2224215676234399877</stp>
         <tr r="D15" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2028429785</v>
         <stp/>
         <stp>BDP|4523336092233717620</stp>
         <tr r="D431" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3612687826</v>
+        <v>#N/A Requesting Data...3151704618</v>
         <stp/>
         <stp>BDP|1296179121871245805</stp>
         <tr r="D300" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1257157837</v>
+        <v>#N/A Requesting Data...1412488028</v>
         <stp/>
         <stp>BDP|3661654014668954788</stp>
         <tr r="D50" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1665292930</v>
         <stp/>
         <stp>BDP|9924052402727859504</stp>
         <tr r="D577" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1947256846</v>
+        <v>#N/A Requesting Data...4214994644</v>
         <stp/>
         <stp>BDP|8698180476532918744</stp>
         <tr r="D397" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2054939847</v>
         <stp/>
         <stp>BDP|7938038971357920380</stp>
         <tr r="D416" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2807037292</v>
         <stp/>
         <stp>BDP|5245281727411393061</stp>
         <tr r="D514" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3952760726</v>
+        <v>#N/A Requesting Data...4248936290</v>
         <stp/>
         <stp>BDP|1662580733301037226</stp>
         <tr r="D530" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3639030945</v>
+        <v>#N/A Requesting Data...2777302256</v>
         <stp/>
         <stp>BDP|7949109588613523941</stp>
         <tr r="D40" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...997349411</v>
         <stp/>
         <stp>BDP|7005215072217282174</stp>
         <tr r="D402" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2180815700</v>
+        <v>#N/A Requesting Data...2147826312</v>
         <stp/>
         <stp>BDP|7166920933601970908</stp>
         <tr r="D16" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...579833028</v>
+        <v>#N/A Requesting Data...1539503228</v>
         <stp/>
         <stp>BDP|3475908282603960415</stp>
         <tr r="D260" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1548130757</v>
+        <v>#N/A Requesting Data...2250226419</v>
         <stp/>
         <stp>BDP|5979420807602581651</stp>
         <tr r="D85" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...835976117</v>
+        <v>#N/A Requesting Data...4083451573</v>
         <stp/>
         <stp>BDP|5037422791715941867</stp>
         <tr r="D328" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2771307171</v>
+        <v>#N/A Requesting Data...3512328449</v>
         <stp/>
         <stp>BDP|5116413237123352498</stp>
         <tr r="D105" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1972727503</v>
         <stp/>
         <stp>BDP|9059260025225871998</stp>
         <tr r="D452" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...764575152</v>
+        <v>#N/A Requesting Data...4210215376</v>
         <stp/>
         <stp>BDP|1465345185619771632</stp>
         <tr r="D312" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...806006472</v>
+        <v>#N/A Requesting Data...2675887697</v>
         <stp/>
         <stp>BDP|7676464898769936601</stp>
         <tr r="D43" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...959462619</v>
+        <v>#N/A Requesting Data...2866990098</v>
         <stp/>
         <stp>BDP|3763114208884910301</stp>
         <tr r="D136" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1899337067</v>
+        <v>#N/A Requesting Data...1432285737</v>
         <stp/>
         <stp>BDP|8072681399763360154</stp>
         <tr r="D362" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2785733943</v>
         <stp/>
         <stp>BDP|3098417321774331448</stp>
         <tr r="D23" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1761645821</v>
+        <v>#N/A Requesting Data...3758446394</v>
         <stp/>
         <stp>BDP|7909255723500064281</stp>
         <tr r="D508" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...515677313</v>
+        <v>#N/A Requesting Data...3865097337</v>
         <stp/>
         <stp>BDP|2293378301535568153</stp>
         <tr r="D190" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1963542716</v>
+        <v>#N/A Requesting Data...1914192859</v>
         <stp/>
         <stp>BDP|2988184231824436105</stp>
         <tr r="D243" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3711660746</v>
+        <v>#N/A Requesting Data...2114555144</v>
         <stp/>
         <stp>BDP|3643798898531358908</stp>
         <tr r="D7" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3531990167</v>
+        <v>#N/A Requesting Data...3421634743</v>
         <stp/>
         <stp>BDP|9924585886009360805</stp>
         <tr r="D104" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2770089663</v>
+        <v>#N/A Requesting Data...2614247175</v>
         <stp/>
         <stp>BDP|8712628990813229129</stp>
         <tr r="D127" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2070925001</v>
+        <v>#N/A Requesting Data...2640660329</v>
         <stp/>
         <stp>BDP|8505754588400618169</stp>
         <tr r="D134" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...835884992</v>
+        <v>#N/A Requesting Data...1459840328</v>
         <stp/>
         <stp>BDP|7897752427741522573</stp>
         <tr r="D62" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3938976297</v>
+        <v>#N/A Requesting Data...3853829741</v>
         <stp/>
         <stp>BDP|5152732906727402381</stp>
         <tr r="D213" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2057410077</v>
+        <v>#N/A Requesting Data...2733579151</v>
         <stp/>
         <stp>BDP|8591675065389753788</stp>
         <tr r="D122" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...411613913</v>
+        <v>#N/A Requesting Data...2484383870</v>
         <stp/>
         <stp>BDP|7862024903508011905</stp>
         <tr r="D37" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1176450532</v>
+        <v>#N/A Requesting Data...2506358298</v>
         <stp/>
         <stp>BDP|5373321633363852032</stp>
         <tr r="D230" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1824835298</v>
         <stp/>
         <stp>BDP|1867912855733271817</stp>
         <tr r="D266" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4126574341</v>
+        <v>#N/A Requesting Data...1349279654</v>
         <stp/>
         <stp>BDP|1889368929935854321</stp>
         <tr r="D487" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2907416587</v>
+        <v>#N/A Requesting Data...2740209511</v>
         <stp/>
         <stp>BDP|6028636575459971821</stp>
         <tr r="D133" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3583860504</v>
+        <v>#N/A Requesting Data...3124945268</v>
         <stp/>
         <stp>BDP|7722671022665348033</stp>
         <tr r="D474" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2269534389</v>
+        <v>#N/A Requesting Data...974842162</v>
         <stp/>
         <stp>BDP|4660911983747217447</stp>
         <tr r="D352" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4022929344</v>
+        <v>#N/A Requesting Data...2220470096</v>
         <stp/>
         <stp>BDP|2499220431597090247</stp>
         <tr r="D354" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2863460955</v>
+        <v>#N/A Requesting Data...2578447959</v>
         <stp/>
         <stp>BDP|1762090205394266398</stp>
         <tr r="D118" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3371067575</v>
+        <v>#N/A Requesting Data...1104427409</v>
         <stp/>
         <stp>BDP|6288849757665878890</stp>
         <tr r="D299" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3937338061</v>
+        <v>#N/A Requesting Data...1961650430</v>
         <stp/>
         <stp>BDP|4578725706274497145</stp>
         <tr r="D78" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3069205522</v>
         <stp/>
         <stp>BDP|8563434988913791184</stp>
         <tr r="D115" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3763806821</v>
+        <v>#N/A Requesting Data...1983241258</v>
         <stp/>
         <stp>BDP|2713161853128675832</stp>
         <tr r="D438" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2840347957</v>
+        <v>#N/A Requesting Data...3755043109</v>
         <stp/>
         <stp>BDP|5375150814376172547</stp>
         <tr r="D183" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1926922243</v>
+        <v>#N/A Requesting Data...3344199860</v>
         <stp/>
         <stp>BDP|8361373044860119957</stp>
         <tr r="D91" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2472649060</v>
+        <v>#N/A Requesting Data...1331824736</v>
         <stp/>
         <stp>BDP|8534560576518547457</stp>
         <tr r="D194" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1728879040</v>
+        <v>#N/A Requesting Data...2227208703</v>
         <stp/>
         <stp>BDP|5189930998341893380</stp>
         <tr r="D202" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3807126706</v>
+        <v>#N/A Requesting Data...2595173183</v>
         <stp/>
         <stp>BDP|7287799954722430050</stp>
         <tr r="D500" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...780459317</v>
+        <v>#N/A Requesting Data...1784535844</v>
         <stp/>
         <stp>BDP|6238472035472816477</stp>
         <tr r="D237" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1246950329</v>
+        <v>#N/A Requesting Data...3572407077</v>
         <stp/>
         <stp>BDP|2394784021459447921</stp>
         <tr r="D548" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1923156794</v>
         <stp/>
         <stp>BDP|3737498110312007328</stp>
         <tr r="D293" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1543094243</v>
         <stp/>
         <stp>BDP|3519651380778808240</stp>
         <tr r="D579" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1644483170</v>
+        <v>#N/A Requesting Data...1021019777</v>
         <stp/>
         <stp>BDP|2051744658246332136</stp>
         <tr r="D27" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1039168910</v>
+        <v>#N/A Requesting Data...2716817615</v>
         <stp/>
         <stp>BDP|4825030463322184747</stp>
         <tr r="D142" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1838782645</v>
+        <v>#N/A Requesting Data...1070655099</v>
         <stp/>
         <stp>BDP|7457262844856528015</stp>
         <tr r="D440" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2880783325</v>
+        <v>#N/A Requesting Data...2796180671</v>
         <stp/>
         <stp>BDP|4790028807567550453</stp>
         <tr r="D290" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3429019182</v>
+        <v>#N/A Requesting Data...2001686974</v>
         <stp/>
         <stp>BDP|7297790867386885764</stp>
         <tr r="D309" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1861945613</v>
+        <v>#N/A Requesting Data...2535064831</v>
         <stp/>
         <stp>BDP|1746752822412108129</stp>
         <tr r="D323" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3218893256</v>
+        <v>#N/A Requesting Data...4257104496</v>
         <stp/>
         <stp>BDP|1766375745043229240</stp>
         <tr r="D209" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4079637470</v>
+        <v>#N/A Requesting Data...3220641200</v>
         <stp/>
         <stp>BDP|4636711009917851376</stp>
         <tr r="D182" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2673995538</v>
+        <v>#N/A Requesting Data...3934437786</v>
         <stp/>
         <stp>BDP|8749935877251718052</stp>
         <tr r="D573" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1896927611</v>
+        <v>#N/A Requesting Data...3399054218</v>
         <stp/>
         <stp>BDP|8869233701588305582</stp>
         <tr r="D341" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4163040658</v>
+        <v>#N/A Requesting Data...2550663344</v>
         <stp/>
         <stp>BDP|7738528431062446460</stp>
         <tr r="D358" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2722641365</v>
+        <v>#N/A Requesting Data...2230388557</v>
         <stp/>
         <stp>BDP|1490451255536556166</stp>
         <tr r="D13" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3849663050</v>
+        <v>#N/A Requesting Data...2797264460</v>
         <stp/>
         <stp>BDP|4148629829775886254</stp>
         <tr r="D20" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3650318295</v>
         <stp/>
         <stp>BDP|5411126655507739108</stp>
         <tr r="D542" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4049994925</v>
+        <v>#N/A Requesting Data...1800339234</v>
         <stp/>
         <stp>BDP|3927876368834974974</stp>
         <tr r="D557" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...740676742</v>
+        <v>#N/A Requesting Data...2296988771</v>
         <stp/>
         <stp>BDP|7743598363670647451</stp>
         <tr r="D98" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...799141719</v>
+        <v>#N/A Requesting Data...2581170380</v>
         <stp/>
         <stp>BDP|7020272731156842016</stp>
         <tr r="D339" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1795334903</v>
+        <v>#N/A Requesting Data...1725772760</v>
         <stp/>
         <stp>BDP|7456297801813635661</stp>
         <tr r="D375" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1148667351</v>
+        <v>#N/A Requesting Data...3011413835</v>
         <stp/>
         <stp>BDP|5762374174869363840</stp>
         <tr r="D417" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3630091279</v>
+        <v>#N/A Requesting Data...3776526723</v>
         <stp/>
         <stp>BDP|3393157485503720975</stp>
         <tr r="D383" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4193147570</v>
         <stp/>
         <stp>BDP|5232840873708276242</stp>
         <tr r="D336" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1729465216</v>
         <stp/>
         <stp>BDP|3612173966712778635</stp>
         <tr r="D192" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2882409711</v>
+        <v>#N/A Requesting Data...2663548315</v>
         <stp/>
         <stp>BDP|3733447231434298019</stp>
         <tr r="D279" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...498872402</v>
+        <v>#N/A Requesting Data...2716057134</v>
         <stp/>
         <stp>BDP|7339243242099211862</stp>
         <tr r="D159" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1583749209</v>
         <stp/>
         <stp>BDP|2000625615164081168</stp>
         <tr r="D390" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4085985321</v>
         <stp/>
         <stp>BDP|9568729820545744946</stp>
         <tr r="D553" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2882568157</v>
+        <v>#N/A Requesting Data...1209626322</v>
         <stp/>
         <stp>BDP|7702250709236697386</stp>
         <tr r="D173" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1624574436</v>
+        <v>#N/A Requesting Data...4082467912</v>
         <stp/>
         <stp>BDP|3768594683288431739</stp>
         <tr r="D34" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3964650320</v>
         <stp/>
         <stp>BDP|3229626952947141698</stp>
         <tr r="D517" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1897832011</v>
+        <v>#N/A Requesting Data...1255489665</v>
         <stp/>
         <stp>BDP|1464757744162614196</stp>
         <tr r="D565" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1519477982</v>
+        <v>#N/A Requesting Data...1589884088</v>
         <stp/>
         <stp>BDP|5226776285259143295</stp>
         <tr r="D216" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1678248033</v>
+        <v>#N/A Requesting Data...3529830469</v>
         <stp/>
         <stp>BDP|1749196855906407265</stp>
         <tr r="D191" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1774580750</v>
+        <v>#N/A Requesting Data...3117358747</v>
         <stp/>
         <stp>BDP|6640473998318290254</stp>
         <tr r="D275" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2782895574</v>
+        <v>#N/A Requesting Data...2140772318</v>
         <stp/>
         <stp>BDP|7981643659250315583</stp>
         <tr r="D544" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2200004937</v>
         <stp/>
         <stp>BDP|1172786470216966627</stp>
         <tr r="D442" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4120401300</v>
+        <v>#N/A Requesting Data...1747910887</v>
         <stp/>
         <stp>BDP|4493965216098373541</stp>
         <tr r="D285" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1019175020</v>
+        <v>#N/A Requesting Data...3263310963</v>
         <stp/>
         <stp>BDP|8652953273535731244</stp>
         <tr r="D282" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4035167360</v>
+        <v>#N/A Requesting Data...2345969017</v>
         <stp/>
         <stp>BDP|6247261525487247021</stp>
         <tr r="D522" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1041628730</v>
+        <v>#N/A Requesting Data...1638542304</v>
         <stp/>
         <stp>BDP|8657366021000358849</stp>
         <tr r="D274" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2919617328</v>
         <stp/>
         <stp>BDP|6174475748970092785</stp>
         <tr r="D516" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3614639415</v>
+        <v>#N/A Requesting Data...1595083646</v>
         <stp/>
         <stp>BDP|3551612767713293152</stp>
         <tr r="D5" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3319622768</v>
+        <v>#N/A Requesting Data...4266735623</v>
         <stp/>
         <stp>BDP|3427098631898927908</stp>
         <tr r="D583" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2556389673</v>
         <stp/>
         <stp>BDP|7901869801916943829</stp>
         <tr r="D491" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3795894150</v>
+        <v>#N/A Requesting Data...3899150890</v>
         <stp/>
         <stp>BDP|1943553078210746265</stp>
         <tr r="D369" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2828343050</v>
+        <v>#N/A Requesting Data...3495063784</v>
         <stp/>
         <stp>BDP|4949023276263038251</stp>
         <tr r="D61" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2376739539</v>
         <stp/>
         <stp>BDP|4989584419047686578</stp>
         <tr r="D340" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2937738460</v>
+        <v>#N/A Requesting Data...3724652854</v>
         <stp/>
         <stp>BDP|6393796523609399841</stp>
         <tr r="D453" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2123054483</v>
+        <v>#N/A Requesting Data...3225446146</v>
         <stp/>
         <stp>BDP|4753245750303981269</stp>
         <tr r="D287" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1796493648</v>
         <stp/>
         <stp>BDP|2072281570842790722</stp>
         <tr r="D267" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2176830741</v>
+        <v>#N/A Requesting Data...1572020205</v>
         <stp/>
         <stp>BDP|3393122124422768007</stp>
         <tr r="D288" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3073874896</v>
+        <v>#N/A Requesting Data...1134310119</v>
         <stp/>
         <stp>BDP|4957503420636233786</stp>
         <tr r="D281" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4160503944</v>
+        <v>#N/A Requesting Data...2508038133</v>
         <stp/>
         <stp>BDP|3500293456512187488</stp>
         <tr r="D124" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2648802996</v>
+        <v>#N/A Requesting Data...3884995123</v>
         <stp/>
         <stp>BDP|8739978840685568234</stp>
         <tr r="D17" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2898318685</v>
         <stp/>
         <stp>BDP|4096269647590203048</stp>
         <tr r="D406" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2188378093</v>
         <stp/>
         <stp>BDP|7836319945986831400</stp>
         <tr r="D315" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2232566123</v>
+        <v>#N/A Requesting Data...3677757318</v>
         <stp/>
         <stp>BDP|6312760661944482144</stp>
         <tr r="D373" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2224950976</v>
         <stp/>
         <stp>BDP|8079996756815243264</stp>
         <tr r="D188" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3095686700</v>
         <stp/>
         <stp>BDP|2673628771994847449</stp>
         <tr r="D450" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...997507678</v>
+        <v>#N/A Requesting Data...3055377449</v>
         <stp/>
         <stp>BDP|2819857377356235874</stp>
         <tr r="D81" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2794430800</v>
+        <v>#N/A Requesting Data...2536194443</v>
         <stp/>
         <stp>BDP|6639434749407158216</stp>
         <tr r="D512" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1895383713</v>
+        <v>#N/A Requesting Data...1748516188</v>
         <stp/>
         <stp>BDP|6203570128133969183</stp>
         <tr r="D144" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3957867626</v>
+        <v>#N/A Requesting Data...1897492160</v>
         <stp/>
         <stp>BDP|1569887080373392132</stp>
         <tr r="D120" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3290688144</v>
         <stp/>
         <stp>BDP|9056453078160598956</stp>
         <tr r="D380" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3475689687</v>
+        <v>#N/A Requesting Data...3525719431</v>
         <stp/>
         <stp>BDP|6308584932105341675</stp>
         <tr r="D39" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1890889973</v>
         <stp/>
         <stp>BDP|7350319533614097031</stp>
         <tr r="D238" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1658244115</v>
         <stp/>
         <stp>BDP|6634135363243093163</stp>
         <tr r="D444" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1984259052</v>
         <stp/>
         <stp>BDP|8143426762301172816</stp>
         <tr r="D265" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4172996667</v>
         <stp/>
         <stp>BDP|3000832087751759158</stp>
         <tr r="D414" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2519844835</v>
         <stp/>
         <stp>BDP|3625079708654751491</stp>
         <tr r="D567" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1428994486</v>
+        <v>#N/A Requesting Data...2474039677</v>
         <stp/>
         <stp>BDP|1258866120959105126</stp>
         <tr r="D561" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3030177948</v>
+        <v>#N/A Requesting Data...3648296309</v>
         <stp/>
         <stp>BDP|1079611500885563136</stp>
         <tr r="D256" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3605196607</v>
+        <v>#N/A Requesting Data...3953986527</v>
         <stp/>
         <stp>BDP|3243968224278649323</stp>
         <tr r="D582" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1605428092</v>
+        <v>#N/A Requesting Data...1926700725</v>
         <stp/>
         <stp>BDP|3935741423492805726</stp>
         <tr r="D45" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1594862641</v>
+        <v>#N/A Requesting Data...4149446051</v>
         <stp/>
         <stp>BDP|8775461397464745249</stp>
         <tr r="D404" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2047730704</v>
+        <v>#N/A Requesting Data...2830101355</v>
         <stp/>
         <stp>BDP|4149497578023598709</stp>
         <tr r="D114" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2742876235</v>
+        <v>#N/A Requesting Data...3144003969</v>
         <stp/>
         <stp>BDP|2024817980394117554</stp>
         <tr r="D475" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4095911202</v>
+        <v>#N/A Requesting Data...2380545195</v>
         <stp/>
         <stp>BDP|7263781038469211956</stp>
         <tr r="D184" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1407694462</v>
+        <v>#N/A Requesting Data...1336252450</v>
         <stp/>
         <stp>BDP|6265204926545385028</stp>
         <tr r="D258" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4147693188</v>
+        <v>#N/A Requesting Data...2068966086</v>
         <stp/>
         <stp>BDP|48608902596895924</stp>
         <tr r="D55" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2294424965</v>
+        <v>#N/A Requesting Data...3074652651</v>
         <stp/>
         <stp>BDP|96904581314260211</stp>
         <tr r="D511" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1270422838</v>
+        <v>#N/A Requesting Data...4127264492</v>
         <stp/>
         <stp>BDP|48025756463849012</stp>
         <tr r="D324" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3639431432</v>
         <stp/>
         <stp>BDP|75451627768221885</stp>
         <tr r="D262" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2295073255</v>
         <stp/>
         <stp>BDP|602601916216927526</stp>
         <tr r="D347" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3572551507</v>
+        <v>#N/A Requesting Data...2484168635</v>
         <stp/>
         <stp>BDP|742317726280952669</stp>
         <tr r="D210" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4269282131</v>
         <stp/>
         <stp>BDP|536342472786416586</stp>
         <tr r="D405" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1987589072</v>
+        <v>#N/A Requesting Data...1863118304</v>
         <stp/>
         <stp>BDP|107192551852196126</stp>
         <tr r="D387" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3419185706</v>
         <stp/>
         <stp>BDP|363717428947256536</stp>
         <tr r="D459" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2900375241</v>
         <stp/>
         <stp>BDP|571806586507393013</stp>
         <tr r="D518" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2217881813</v>
+        <v>#N/A Requesting Data...1703796490</v>
         <stp/>
         <stp>BDP|724631544285136649</stp>
         <tr r="D269" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3493321130</v>
+        <v>#N/A Requesting Data...3072224618</v>
         <stp/>
         <stp>BDP|707009590311595971</stp>
         <tr r="D123" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1108698264</v>
+        <v>#N/A Requesting Data...4057687536</v>
         <stp/>
         <stp>BDP|358293908277290400</stp>
         <tr r="D178" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1796117416</v>
+        <v>#N/A Requesting Data...3084857949</v>
         <stp/>
         <stp>BDP|838178952767886270</stp>
         <tr r="D146" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4131889460</v>
+        <v>#N/A Requesting Data...2220500244</v>
         <stp/>
         <stp>BDP|265254163087537220</stp>
         <tr r="D44" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3531581058</v>
+        <v>#N/A Requesting Data...1700100647</v>
         <stp/>
         <stp>BDP|729321671512090681</stp>
         <tr r="D515" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2574424297</v>
         <stp/>
         <stp>BDP|159012462977714166</stp>
         <tr r="D359" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2274607455</v>
+        <v>#N/A Requesting Data...3860101740</v>
         <stp/>
         <stp>BDP|702676246109273800</stp>
         <tr r="D482" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1420513609</v>
+        <v>#N/A Requesting Data...1699974474</v>
         <stp/>
         <stp>BDP|318717744080343059</stp>
         <tr r="D160" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1260358839</v>
+        <v>#N/A Requesting Data...3484245578</v>
         <stp/>
         <stp>BDP|906890884136209558</stp>
         <tr r="D292" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2473857313</v>
         <stp/>
         <stp>BDP|201374897063670414</stp>
         <tr r="D523" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3517762017</v>
         <stp/>
         <stp>BDP|531076695287606366</stp>
         <tr r="D400" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4006044308</v>
         <stp/>
         <stp>BDP|144477032269742222</stp>
         <tr r="D441" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...838742998</v>
+        <v>#N/A Requesting Data...2653499065</v>
         <stp/>
         <stp>BDP|369335997283767693</stp>
         <tr r="D42" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1315542813</v>
+        <v>#N/A Requesting Data...3760888084</v>
         <stp/>
         <stp>BDP|397864705266572167</stp>
         <tr r="D167" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1451651484</v>
+        <v>#N/A Requesting Data...2749096013</v>
         <stp/>
         <stp>BDP|311302696366017280</stp>
         <tr r="D203" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4284518798</v>
         <stp/>
         <stp>BDP|233898526081711550</stp>
         <tr r="D490" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4139767220</v>
+        <v>#N/A Requesting Data...2032109340</v>
         <stp/>
         <stp>BDP|922369095513489762</stp>
         <tr r="D568" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1996478136</v>
         <stp/>
         <stp>BDP|979275311794530914</stp>
         <tr r="D473" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1206489662</v>
         <stp/>
         <stp>BDP|143898849454240623</stp>
         <tr r="D240" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4006816264</v>
         <stp/>
         <stp>BDP|346782390500645557</stp>
         <tr r="D447" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3267690052</v>
+        <v>#N/A Requesting Data...2960193538</v>
         <stp/>
         <stp>BDP|797189529280801998</stp>
         <tr r="D572" s="1"/>
@@ -5737,7 +5737,7 @@
   <dimension ref="A1:Q589"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A565" workbookViewId="0">
-      <selection activeCell="Q584" sqref="Q584"/>
+      <selection activeCell="J571" sqref="J571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
